--- a/organismo/Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas.xlsx
+++ b/organismo/Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:O273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,15 +419,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>tipo_pago</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Nombres2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO2</t>
         </is>
@@ -478,17 +488,19 @@
       <c r="J2" t="n">
         <v>809200</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -539,17 +551,19 @@
       <c r="J3" t="n">
         <v>973560</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -600,17 +614,19 @@
       <c r="J4" t="n">
         <v>973560</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -661,17 +677,19 @@
       <c r="J5" t="n">
         <v>809200</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -722,17 +740,19 @@
       <c r="J6" t="n">
         <v>801107</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -783,17 +803,19 @@
       <c r="J7" t="n">
         <v>958893</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -844,17 +866,19 @@
       <c r="J8" t="n">
         <v>958893</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -905,17 +929,19 @@
       <c r="J9" t="n">
         <v>801107</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -966,17 +992,19 @@
       <c r="J10" t="n">
         <v>801229</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1027,17 +1055,19 @@
       <c r="J11" t="n">
         <v>959015</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1088,17 +1118,19 @@
       <c r="J12" t="n">
         <v>801302</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1149,17 +1181,19 @@
       <c r="J13" t="n">
         <v>973580</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1210,17 +1244,19 @@
       <c r="J14" t="n">
         <v>809200</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1271,17 +1307,19 @@
       <c r="J15" t="n">
         <v>959186</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1332,17 +1370,19 @@
       <c r="J16" t="n">
         <v>801474</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1393,17 +1433,19 @@
       <c r="J17" t="n">
         <v>647720</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1454,17 +1496,19 @@
       <c r="J18" t="n">
         <v>801631</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1515,17 +1559,19 @@
       <c r="J19" t="n">
         <v>959417</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1576,17 +1622,19 @@
       <c r="J20" t="n">
         <v>959407</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1637,17 +1685,19 @@
       <c r="J21" t="n">
         <v>801631</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1698,17 +1748,19 @@
       <c r="J22" t="n">
         <v>801107</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1759,17 +1811,19 @@
       <c r="J23" t="n">
         <v>959457</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1820,17 +1874,19 @@
       <c r="J24" t="n">
         <v>801671</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -1881,17 +1937,19 @@
       <c r="J25" t="n">
         <v>959457</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -1942,17 +2000,19 @@
       <c r="J26" t="n">
         <v>959507</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2003,17 +2063,19 @@
       <c r="J27" t="n">
         <v>801721</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2064,17 +2126,19 @@
       <c r="J28" t="n">
         <v>959507</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2125,17 +2189,19 @@
       <c r="J29" t="n">
         <v>801721</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2186,17 +2252,19 @@
       <c r="J30" t="n">
         <v>959582</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2247,17 +2315,19 @@
       <c r="J31" t="n">
         <v>801796</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2308,17 +2378,19 @@
       <c r="J32" t="n">
         <v>801796</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2369,17 +2441,19 @@
       <c r="J33" t="n">
         <v>959532</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2430,17 +2504,19 @@
       <c r="J34" t="n">
         <v>801546</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2491,17 +2567,19 @@
       <c r="J35" t="n">
         <v>959532</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2552,17 +2630,19 @@
       <c r="J36" t="n">
         <v>959532</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2613,17 +2693,19 @@
       <c r="J37" t="n">
         <v>801746</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2674,17 +2756,19 @@
       <c r="J38" t="n">
         <v>801546</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2735,17 +2819,19 @@
       <c r="J39" t="n">
         <v>958932</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2796,17 +2882,19 @@
       <c r="J40" t="n">
         <v>808887</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2857,17 +2945,19 @@
       <c r="J41" t="n">
         <v>959857</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -2918,17 +3008,19 @@
       <c r="J42" t="n">
         <v>808910</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -2979,17 +3071,19 @@
       <c r="J43" t="n">
         <v>959883</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3040,17 +3134,19 @@
       <c r="J44" t="n">
         <v>808910</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3101,17 +3197,19 @@
       <c r="J45" t="n">
         <v>959782</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3162,17 +3260,19 @@
       <c r="J46" t="n">
         <v>959832</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3223,17 +3323,19 @@
       <c r="J47" t="n">
         <v>808862</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3284,17 +3386,19 @@
       <c r="J48" t="n">
         <v>959882</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3345,17 +3449,19 @@
       <c r="J49" t="n">
         <v>808812</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3406,17 +3512,19 @@
       <c r="J50" t="n">
         <v>959831</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3467,17 +3575,19 @@
       <c r="J51" t="n">
         <v>808861</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3528,17 +3638,19 @@
       <c r="J52" t="n">
         <v>959507</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3589,17 +3701,19 @@
       <c r="J53" t="n">
         <v>801721</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3650,17 +3764,19 @@
       <c r="J54" t="n">
         <v>801796</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3711,17 +3827,19 @@
       <c r="J55" t="n">
         <v>959582</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3772,17 +3890,19 @@
       <c r="J56" t="n">
         <v>959532</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -3833,17 +3953,19 @@
       <c r="J57" t="n">
         <v>801796</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3894,17 +4016,19 @@
       <c r="J58" t="n">
         <v>801546</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -3955,17 +4079,19 @@
       <c r="J59" t="n">
         <v>959532</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4016,17 +4142,19 @@
       <c r="J60" t="n">
         <v>959532</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4077,17 +4205,19 @@
       <c r="J61" t="n">
         <v>801746</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4138,17 +4268,19 @@
       <c r="J62" t="n">
         <v>958932</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4199,17 +4331,19 @@
       <c r="J63" t="n">
         <v>801546</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4260,17 +4394,19 @@
       <c r="J64" t="n">
         <v>959857</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4321,17 +4457,19 @@
       <c r="J65" t="n">
         <v>808887</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4382,17 +4520,19 @@
       <c r="J66" t="n">
         <v>959883</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4443,17 +4583,19 @@
       <c r="J67" t="n">
         <v>808910</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4504,17 +4646,19 @@
       <c r="J68" t="n">
         <v>959782</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4565,17 +4709,19 @@
       <c r="J69" t="n">
         <v>808910</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4626,17 +4772,19 @@
       <c r="J70" t="n">
         <v>808862</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4687,17 +4835,19 @@
       <c r="J71" t="n">
         <v>959832</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4748,17 +4898,19 @@
       <c r="J72" t="n">
         <v>808812</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4809,17 +4961,19 @@
       <c r="J73" t="n">
         <v>959882</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4870,17 +5024,19 @@
       <c r="J74" t="n">
         <v>808861</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -4931,17 +5087,19 @@
       <c r="J75" t="n">
         <v>959831</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -4992,17 +5150,19 @@
       <c r="J76" t="n">
         <v>959507</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5053,17 +5213,19 @@
       <c r="J77" t="n">
         <v>801721</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5114,17 +5276,19 @@
       <c r="J78" t="n">
         <v>804959</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5175,17 +5339,19 @@
       <c r="J79" t="n">
         <v>653029</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5236,17 +5402,19 @@
       <c r="J80" t="n">
         <v>804958</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5297,17 +5465,19 @@
       <c r="J81" t="n">
         <v>653028</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5358,17 +5528,19 @@
       <c r="J82" t="n">
         <v>804958</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5419,17 +5591,19 @@
       <c r="J83" t="n">
         <v>653028</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="N83" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5480,17 +5654,19 @@
       <c r="J84" t="n">
         <v>804959</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5541,17 +5717,19 @@
       <c r="J85" t="n">
         <v>653028</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5602,17 +5780,19 @@
       <c r="J86" t="n">
         <v>804957</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5663,17 +5843,19 @@
       <c r="J87" t="n">
         <v>653028</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5724,17 +5906,19 @@
       <c r="J88" t="n">
         <v>804952</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5785,17 +5969,19 @@
       <c r="J89" t="n">
         <v>653028</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5846,17 +6032,19 @@
       <c r="J90" t="n">
         <v>804950</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -5907,17 +6095,19 @@
       <c r="J91" t="n">
         <v>653028</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -5968,17 +6158,19 @@
       <c r="J92" t="n">
         <v>805326</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6029,17 +6221,19 @@
       <c r="J93" t="n">
         <v>653040</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6090,17 +6284,19 @@
       <c r="J94" t="n">
         <v>805384</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6151,17 +6347,19 @@
       <c r="J95" t="n">
         <v>653040</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6212,17 +6410,19 @@
       <c r="J96" t="n">
         <v>805384</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6273,17 +6473,19 @@
       <c r="J97" t="n">
         <v>653040</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6334,17 +6536,19 @@
       <c r="J98" t="n">
         <v>653040</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6395,17 +6599,19 @@
       <c r="J99" t="n">
         <v>805432</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6456,17 +6662,19 @@
       <c r="J100" t="n">
         <v>653040</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6517,17 +6725,19 @@
       <c r="J101" t="n">
         <v>805644</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6578,17 +6788,19 @@
       <c r="J102" t="n">
         <v>804959</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6639,17 +6851,19 @@
       <c r="J103" t="n">
         <v>653029</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6700,17 +6914,19 @@
       <c r="J104" t="n">
         <v>804958</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6761,17 +6977,19 @@
       <c r="J105" t="n">
         <v>653028</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="N105" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6822,17 +7040,19 @@
       <c r="J106" t="n">
         <v>804958</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -6883,17 +7103,19 @@
       <c r="J107" t="n">
         <v>653028</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -6944,17 +7166,19 @@
       <c r="J108" t="n">
         <v>653028</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7005,17 +7229,19 @@
       <c r="J109" t="n">
         <v>804959</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="N109" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7066,17 +7292,19 @@
       <c r="J110" t="n">
         <v>804957</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="N110" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7127,17 +7355,19 @@
       <c r="J111" t="n">
         <v>653028</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7188,17 +7418,19 @@
       <c r="J112" t="n">
         <v>653028</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="N112" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7249,17 +7481,19 @@
       <c r="J113" t="n">
         <v>804952</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="N113" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7310,17 +7544,19 @@
       <c r="J114" t="n">
         <v>653028</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7371,17 +7607,19 @@
       <c r="J115" t="n">
         <v>804950</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7432,17 +7670,19 @@
       <c r="J116" t="n">
         <v>653040</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="N116" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7493,17 +7733,19 @@
       <c r="J117" t="n">
         <v>805326</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="N117" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7554,17 +7796,19 @@
       <c r="J118" t="n">
         <v>653040</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="N118" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7615,17 +7859,19 @@
       <c r="J119" t="n">
         <v>805384</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="N119" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7676,17 +7922,19 @@
       <c r="J120" t="n">
         <v>653040</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="N120" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7737,17 +7985,19 @@
       <c r="J121" t="n">
         <v>805384</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="N121" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7798,17 +8048,19 @@
       <c r="J122" t="n">
         <v>805432</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7859,17 +8111,19 @@
       <c r="J123" t="n">
         <v>653040</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="N123" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -7920,17 +8174,19 @@
       <c r="J124" t="n">
         <v>805644</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="N124" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -7981,17 +8237,19 @@
       <c r="J125" t="n">
         <v>653040</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="N125" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8042,17 +8300,19 @@
       <c r="J126" t="n">
         <v>806376</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="N126" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8103,17 +8363,19 @@
       <c r="J127" t="n">
         <v>653040</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="N127" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8164,17 +8426,19 @@
       <c r="J128" t="n">
         <v>806458</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="N128" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8225,17 +8489,19 @@
       <c r="J129" t="n">
         <v>653040</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="N129" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8286,17 +8552,19 @@
       <c r="J130" t="n">
         <v>806652</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="N130" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8347,17 +8615,19 @@
       <c r="J131" t="n">
         <v>653040</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="N131" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8408,17 +8678,19 @@
       <c r="J132" t="n">
         <v>806708</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="N132" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8469,17 +8741,19 @@
       <c r="J133" t="n">
         <v>653040</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="N133" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8530,17 +8804,19 @@
       <c r="J134" t="n">
         <v>653040</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="N134" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8591,17 +8867,19 @@
       <c r="J135" t="n">
         <v>806819</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="N135" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8652,17 +8930,19 @@
       <c r="J136" t="n">
         <v>653040</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="N136" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8713,17 +8993,19 @@
       <c r="J137" t="n">
         <v>806819</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="N137" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8774,17 +9056,19 @@
       <c r="J138" t="n">
         <v>807015</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="N138" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -8835,17 +9119,19 @@
       <c r="J139" t="n">
         <v>653040</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="N139" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8896,17 +9182,19 @@
       <c r="J140" t="n">
         <v>653040</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="N140" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -8957,17 +9245,19 @@
       <c r="J141" t="n">
         <v>807015</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="N141" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9018,17 +9308,19 @@
       <c r="J142" t="n">
         <v>963039</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="N142" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9079,17 +9371,19 @@
       <c r="J143" t="n">
         <v>812069</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="N143" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9140,17 +9434,19 @@
       <c r="J144" t="n">
         <v>812183</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="N144" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9201,17 +9497,19 @@
       <c r="J145" t="n">
         <v>963152</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9262,17 +9560,19 @@
       <c r="J146" t="n">
         <v>963495</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="N146" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9323,17 +9623,19 @@
       <c r="J147" t="n">
         <v>812182</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="N147" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9384,17 +9686,19 @@
       <c r="J148" t="n">
         <v>963970</v>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="N148" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9445,17 +9749,19 @@
       <c r="J149" t="n">
         <v>812900</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9506,17 +9812,19 @@
       <c r="J150" t="n">
         <v>813036</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="N150" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9567,17 +9875,19 @@
       <c r="J151" t="n">
         <v>964017</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="N151" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9628,17 +9938,19 @@
       <c r="J152" t="n">
         <v>813</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="N152" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9689,17 +10001,19 @@
       <c r="J153" t="n">
         <v>964252</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="N153" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9750,17 +10064,19 @@
       <c r="J154" t="n">
         <v>964608</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="N154" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9811,17 +10127,19 @@
       <c r="J155" t="n">
         <v>813638</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="N155" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9872,17 +10190,19 @@
       <c r="J156" t="n">
         <v>813728</v>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="N156" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -9933,17 +10253,19 @@
       <c r="J157" t="n">
         <v>964698</v>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="N157" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -9994,17 +10316,19 @@
       <c r="J158" t="n">
         <v>965233</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="N158" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10055,17 +10379,19 @@
       <c r="J159" t="n">
         <v>814263</v>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr">
+      <c r="N159" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10116,17 +10442,19 @@
       <c r="J160" t="n">
         <v>965699</v>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="N160" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10177,17 +10505,19 @@
       <c r="J161" t="n">
         <v>814728</v>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="N161" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10238,17 +10568,19 @@
       <c r="J162" t="n">
         <v>965072</v>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="N162" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10299,17 +10631,19 @@
       <c r="J163" t="n">
         <v>815102</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="N163" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10360,17 +10694,19 @@
       <c r="J164" t="n">
         <v>966355</v>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="N164" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10421,17 +10757,19 @@
       <c r="J165" t="n">
         <v>815385</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="N165" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10482,17 +10820,19 @@
       <c r="J166" t="n">
         <v>966799</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="N166" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10543,17 +10883,19 @@
       <c r="J167" t="n">
         <v>815829</v>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="N167" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10604,17 +10946,19 @@
       <c r="J168" t="n">
         <v>812183</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="N168" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10665,17 +11009,19 @@
       <c r="J169" t="n">
         <v>963152</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="N169" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10726,17 +11072,19 @@
       <c r="J170" t="n">
         <v>812183</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="N170" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
+      <c r="O170" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10787,17 +11135,19 @@
       <c r="J171" t="n">
         <v>963152</v>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="N171" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="O171" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10848,17 +11198,19 @@
       <c r="J172" t="n">
         <v>963152</v>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="N172" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -10909,17 +11261,19 @@
       <c r="J173" t="n">
         <v>812183</v>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr">
+      <c r="N173" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -10970,17 +11324,19 @@
       <c r="J174" t="n">
         <v>963152</v>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="N174" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11031,17 +11387,19 @@
       <c r="J175" t="n">
         <v>812183</v>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
+      <c r="N175" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
+      <c r="O175" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11092,17 +11450,19 @@
       <c r="J176" t="n">
         <v>812183</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr">
+      <c r="N176" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11153,17 +11513,19 @@
       <c r="J177" t="n">
         <v>963152</v>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="N177" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="O177" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11214,17 +11576,19 @@
       <c r="J178" t="n">
         <v>812183</v>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr">
+      <c r="N178" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
+      <c r="O178" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11275,17 +11639,19 @@
       <c r="J179" t="n">
         <v>963152</v>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="N179" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
+      <c r="O179" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11336,17 +11702,19 @@
       <c r="J180" t="n">
         <v>963152</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="N180" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
+      <c r="O180" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11397,17 +11765,19 @@
       <c r="J181" t="n">
         <v>812183</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L181" t="inlineStr">
+      <c r="N181" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
+      <c r="O181" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11458,17 +11828,19 @@
       <c r="J182" t="n">
         <v>963152</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr">
+      <c r="N182" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr">
+      <c r="O182" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11519,17 +11891,19 @@
       <c r="J183" t="n">
         <v>812183</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr">
+      <c r="N183" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr">
+      <c r="O183" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11580,17 +11954,19 @@
       <c r="J184" t="n">
         <v>963152</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr">
+      <c r="N184" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr">
+      <c r="O184" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11641,17 +12017,19 @@
       <c r="J185" t="n">
         <v>812183</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr">
+      <c r="N185" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="O185" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11702,17 +12080,19 @@
       <c r="J186" t="n">
         <v>812183</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
+      <c r="N186" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr">
+      <c r="O186" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11763,17 +12143,19 @@
       <c r="J187" t="n">
         <v>963152</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="N187" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
+      <c r="O187" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11824,17 +12206,19 @@
       <c r="J188" t="n">
         <v>963152</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr">
+      <c r="N188" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr">
+      <c r="O188" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -11885,17 +12269,19 @@
       <c r="J189" t="n">
         <v>812183</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr">
+      <c r="N189" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr">
+      <c r="O189" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -11946,17 +12332,19 @@
       <c r="J190" t="n">
         <v>812183</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr">
+      <c r="N190" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr">
+      <c r="O190" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12007,17 +12395,19 @@
       <c r="J191" t="n">
         <v>963152</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="N191" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
+      <c r="O191" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -12068,17 +12458,19 @@
       <c r="J192" t="n">
         <v>812183</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="N192" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
+      <c r="O192" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12129,17 +12521,19 @@
       <c r="J193" t="n">
         <v>963152</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="N193" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
+      <c r="O193" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -12190,17 +12584,19 @@
       <c r="J194" t="n">
         <v>812183</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="N194" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
+      <c r="O194" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12251,17 +12647,19 @@
       <c r="J195" t="n">
         <v>963152</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="N195" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
+      <c r="O195" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -12312,17 +12710,19 @@
       <c r="J196" t="n">
         <v>812183</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="N196" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr">
+      <c r="O196" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12373,17 +12773,19 @@
       <c r="J197" t="n">
         <v>963152</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr">
+      <c r="N197" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
+      <c r="O197" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -12434,17 +12836,19 @@
       <c r="J198" t="n">
         <v>963152</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="N198" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
+      <c r="O198" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
         </is>
@@ -12495,17 +12899,19 @@
       <c r="J199" t="n">
         <v>812183</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
+      <c r="N199" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr">
+      <c r="O199" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12556,17 +12962,19 @@
       <c r="J200" t="n">
         <v>812183</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>ALAN</t>
         </is>
       </c>
-      <c r="L200" t="inlineStr">
+      <c r="N200" t="inlineStr">
         <is>
           <t>Alan Romero Mena</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr">
+      <c r="O200" t="inlineStr">
         <is>
           <t>ALAN ROMERO MENA</t>
         </is>
@@ -12617,19 +13025,4381 @@
       <c r="J201" t="n">
         <v>963152</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr">
+      <c r="N201" t="inlineStr">
         <is>
           <t>Jaime Soto Acuña</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr">
+      <c r="O201" t="inlineStr">
         <is>
           <t>JAIME SOTO ACUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J202" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J203" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Gestor Cultural</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J204" t="n">
+        <v>442500</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>FLORENCIA</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Florencia Thompson Perez</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>FLORENCIA THOMPSON PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J205" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Gestor Cultural</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J206" t="n">
+        <v>442500</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>FLORENCIA</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Florencia Thompson Perez</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>FLORENCIA THOMPSON PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J207" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J208" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J209" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Gestor Cultural</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J210" t="n">
+        <v>442500</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>FLORENCIA</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Florencia Thompson Perez</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>FLORENCIA THOMPSON PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Gestor Cultural</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J211" t="n">
+        <v>442500</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>FLORENCIA</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Florencia Thompson Perez</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>FLORENCIA THOMPSON PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J212" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J213" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J214" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J215" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ariana Rosa</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Bertin</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Benavides</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Biolgo Marino</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J216" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Ariana Rosa Bertin Benavides</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>ARIANA ROSA BERTIN BENAVIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Fuentealba</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Urzúa</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Antropóloga</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>641610</v>
+      </c>
+      <c r="J217" t="n">
+        <v>567828</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>PAULA</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Paula Fuentealba Urzúa</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>PAULA FUENTEALBA URZUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J218" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>180000</v>
+      </c>
+      <c r="J219" t="n">
+        <v>156600</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J220" t="n">
+        <v>26100</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J221" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J222" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J223" t="n">
+        <v>26100</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J224" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J225" t="n">
+        <v>26100</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J226" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J227" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Pablo Andres</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Fuentes</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Pablo Andres Barra Fuentes</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES BARRA FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Espinoza</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Moris</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia Espinoza Moris</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA ESPINOZA MORIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Espinoza</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Moris</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia Espinoza Moris</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA ESPINOZA MORIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Pablo Andres</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Fuentes</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Pablo Andres Barra Fuentes</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES BARRA FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Espinoza</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Moris</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Paulina Eugenia Espinoza Moris</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>PAULINA EUGENIA ESPINOZA MORIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Pablo Andres</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Fuentes</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Ingeniero en Biotecnologia</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1612500</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1415250</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Pago en cuotas</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Pablo Andres Barra Fuentes</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>PABLO ANDRES BARRA FUENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J234" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J235" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J236" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J237" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J238" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J239" t="n">
+        <v>696000</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J240" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J241" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J242" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J243" t="n">
+        <v>696000</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J244" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J245" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J246" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J247" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J248" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J249" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J250" t="n">
+        <v>696000</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J251" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Septiembre</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J252" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J253" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J254" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J255" t="n">
+        <v>696000</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J256" t="n">
+        <v>26100</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J257" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J258" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J259" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J260" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J261" t="n">
+        <v>26100</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J262" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Salazar</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Maleras</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Pofesor</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J263" t="n">
+        <v>168000</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Nicolas Thomas Salazar Maleras</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>NICOLAS THOMAS SALAZAR MALERAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J264" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J265" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Natalia Andrea</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Canihuante</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Medico Veterinario</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J266" t="n">
+        <v>696000</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>Natalia Andrea Canihuante Alvarez</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>NATALIA ANDREA CANIHUANTE ALVAREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Darling Estefania</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Cardenas</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Psicologa</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J267" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>Darling Estefania Perez Cardenas</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>DARLING ESTEFANIA PEREZ CARDENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Leonardo Andres</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J268" t="n">
+        <v>174000</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>LEONARDO ANDRES VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J269" t="n">
+        <v>43500</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>Esteban Gregorio Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>ESTEBAN GREGORIO RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Leonardo</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J270" t="n">
+        <v>43125</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>LEONARDO</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>Leonardo Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>LEONARDO VALLADARES ROA</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J271" t="n">
+        <v>172500</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>ESTEBAN</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>Esteban Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>ESTEBAN RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Esteban</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Rivas</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Pastine</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Ingeniero Informatico</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>200000</v>
+      </c>
+      <c r="J272" t="n">
+        <v>172500</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>ESTEBAN</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>Esteban Rivas Pastine</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>ESTEBAN RIVAS PASTINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Febrero</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Leonardo</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Valladares</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Roa</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J273" t="n">
+        <v>43125</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>LEONARDO</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Leonardo Valladares Roa</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>LEONARDO VALLADARES ROA</t>
         </is>
       </c>
     </row>
